--- a/SAE_3_01/fichiers genere/S3AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFI.xlsx
@@ -3307,10 +3307,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3327,9 +3339,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3347,9 +3371,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3367,10 +3403,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -3387,9 +3435,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3407,9 +3463,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3427,10 +3495,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -3447,7 +3523,11 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
@@ -5098,8 +5178,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -5118,9 +5206,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -5138,9 +5234,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -5158,9 +5262,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5178,9 +5294,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -5198,9 +5322,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -5218,9 +5350,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -6889,8 +7029,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -6909,8 +7057,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -6929,9 +7085,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6949,9 +7117,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6969,10 +7145,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -6989,10 +7173,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -8680,9 +8872,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8700,10 +8900,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8720,9 +8928,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12262,10 +12478,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -12282,10 +12510,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -12302,10 +12542,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12322,10 +12570,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12342,7 +12598,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -14053,8 +14313,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14073,9 +14341,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14093,9 +14373,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -14113,10 +14401,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14133,10 +14429,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15844,8 +16148,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -15864,9 +16176,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -15884,10 +16204,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -15904,7 +16232,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -17635,8 +17967,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -17655,9 +17995,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -17675,9 +18027,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -17695,10 +18059,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -17715,10 +18087,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -17735,10 +18115,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -17755,10 +18143,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -19426,9 +19822,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -19446,10 +19850,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -19466,9 +19882,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -19486,8 +19914,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -19506,9 +19942,21 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -19526,7 +19974,11 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
@@ -21217,10 +21669,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -21237,9 +21701,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -21257,10 +21733,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -23008,8 +23492,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -23028,9 +23520,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -23048,9 +23552,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -23068,9 +23584,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23088,9 +23612,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -23108,9 +23640,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -23128,9 +23672,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -23148,9 +23704,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -23168,7 +23732,11 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -24799,8 +25367,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -24819,9 +25395,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -24839,9 +25427,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -24859,9 +25455,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -24879,8 +25483,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -24899,9 +25511,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -24919,9 +25539,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24939,9 +25571,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -24959,9 +25599,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFI.xlsx
@@ -13,13 +13,13 @@
     <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de programmation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d'information " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du numérique" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionnelle" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="R3.A.L1 Introduction IA-1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
@@ -3277,16 +3277,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3305,21 +3297,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3337,17 +3317,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3365,17 +3337,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3393,16 +3357,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3421,17 +3377,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3449,21 +3397,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3481,17 +3417,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3509,17 +3437,9 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5116,22 +5036,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5148,21 +5056,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5180,21 +5076,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5212,22 +5096,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5244,17 +5116,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5272,21 +5136,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5304,18 +5156,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5332,11 +5176,7 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6955,16 +6795,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6983,17 +6815,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -7011,17 +6835,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -7039,21 +6855,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7071,17 +6875,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -7099,17 +6895,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -7127,17 +6915,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8774,18 +8554,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8802,18 +8574,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8830,18 +8594,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8858,18 +8614,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8886,18 +8634,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8914,18 +8654,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8942,18 +8674,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8970,18 +8694,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8998,18 +8714,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -9026,18 +8734,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10613,16 +10313,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10641,16 +10333,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10669,21 +10353,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10701,17 +10373,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10729,18 +10393,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10757,18 +10413,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12424,17 +12072,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12452,18 +12092,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12480,17 +12112,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15966,22 +15590,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15998,22 +15610,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -16030,18 +15630,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -16058,18 +15650,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -16086,11 +15670,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -17769,16 +17349,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17797,21 +17369,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17829,17 +17389,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17857,18 +17409,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17885,18 +17429,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19572,16 +19108,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19600,17 +19128,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19628,18 +19148,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19656,11 +19168,7 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -21359,16 +20867,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -21387,21 +20887,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21419,21 +20907,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21451,18 +20927,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -21479,18 +20947,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21507,18 +20967,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -21535,18 +20987,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -23182,17 +22626,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23210,22 +22646,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -23242,21 +22666,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -23274,16 +22686,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -23302,21 +22706,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -23334,11 +22726,7 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -24997,22 +24385,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -25029,21 +24405,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -25061,18 +24425,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26788,17 +26144,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26816,17 +26164,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26844,18 +26184,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26872,22 +26204,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -28583,16 +27903,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -28611,21 +27923,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -28643,21 +27943,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -28675,17 +27963,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -28703,17 +27983,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -28731,21 +28003,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -28763,21 +28023,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -28795,17 +28043,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -28823,11 +28063,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFI.xlsx
@@ -3277,8 +3277,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3297,9 +3305,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3317,9 +3337,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3337,9 +3365,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3357,8 +3393,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3377,9 +3421,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3397,9 +3449,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3417,9 +3481,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3437,9 +3509,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5036,10 +5116,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5056,9 +5148,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5076,9 +5180,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5096,10 +5212,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5116,9 +5244,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5136,9 +5272,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5156,10 +5304,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5176,7 +5332,11 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6795,8 +6955,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6815,9 +6983,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6835,9 +7011,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6855,9 +7039,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6875,9 +7071,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -6895,9 +7099,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -6915,9 +7127,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8554,10 +8774,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8574,10 +8802,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8594,10 +8830,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8614,10 +8858,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8634,10 +8886,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8654,10 +8914,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8674,10 +8942,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8694,10 +8970,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8714,10 +8998,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8734,10 +9026,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10313,8 +10613,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10333,8 +10641,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10353,9 +10669,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10373,9 +10701,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10393,10 +10729,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10413,10 +10757,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12072,9 +12424,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12092,10 +12452,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12112,9 +12480,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15590,10 +15966,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15610,10 +15998,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15630,10 +16030,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15650,10 +16058,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15670,7 +16086,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -17349,8 +17769,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17369,9 +17797,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17389,9 +17829,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17409,10 +17857,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17429,10 +17885,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19108,8 +19572,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19128,9 +19600,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19148,10 +19628,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19168,7 +19656,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -20867,8 +21359,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -20887,9 +21387,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20907,9 +21419,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20927,10 +21451,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -20947,10 +21479,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -20967,10 +21507,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -20987,10 +21535,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -22626,9 +23182,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22646,10 +23210,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22666,9 +23242,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22686,8 +23274,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -22706,9 +23302,21 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -22726,7 +23334,11 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -24385,10 +24997,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -24405,9 +25029,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24425,10 +25061,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26144,9 +26788,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26164,9 +26816,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26184,10 +26844,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26204,10 +26872,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -27903,8 +28583,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -27923,9 +28611,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -27943,9 +28643,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -27963,9 +28675,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -27983,9 +28703,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -28003,9 +28731,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -28023,9 +28763,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -28043,9 +28795,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -28063,7 +28823,11 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFI.xlsx
@@ -7,21 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R3.01 Développement Web" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R3.02 Développement efficace" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R3.03 Analyse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="R3.A.L1 Introduction IA-1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="R3.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R3.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R3.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R3.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R3.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R3.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R3.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R3.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R3.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R3.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R3.A.L1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -8776,7 +8776,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -8804,7 +8804,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -8832,7 +8832,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -8860,7 +8860,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -8888,7 +8888,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -8916,7 +8916,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -8944,7 +8944,7 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B41" s="27" t="n"/>
@@ -8972,7 +8972,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -9000,7 +9000,7 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
@@ -9028,7 +9028,7 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B44" s="27" t="n"/>
@@ -9054,10 +9054,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -9074,10 +9082,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -15229,7 +15245,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -15973,13 +15989,13 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 6H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -16011,7 +16027,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -19582,7 +19598,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19630,14 +19650,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -19658,12 +19678,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19680,7 +19704,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -20622,7 +20650,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -23187,10 +23215,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -23212,14 +23244,10 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
@@ -23244,7 +23272,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="inlineStr">
@@ -23252,12 +23280,12 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -23276,7 +23304,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="inlineStr">
@@ -23284,7 +23312,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -23304,7 +23336,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B39" s="27" t="inlineStr">
@@ -23312,11 +23344,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -23336,11 +23364,19 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -23358,7 +23394,11 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -26818,16 +26858,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26846,16 +26886,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26874,15 +26914,11 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
@@ -26904,10 +26940,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFI.xlsx
@@ -3377,7 +3377,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -3521,7 +3525,11 @@
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
@@ -5340,7 +5348,11 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
+      <c r="E42" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
       <c r="H42" s="27" t="n"/>
@@ -7139,7 +7151,11 @@
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -15245,7 +15261,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -16110,7 +16126,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -19712,7 +19732,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -20650,7 +20674,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -21575,7 +21599,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -23402,7 +23430,11 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -25113,7 +25145,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -26956,7 +26992,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -28763,7 +28803,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -28879,7 +28923,11 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
